--- a/teams-and-rosters/CS320-Sp22-101-section-roster.xlsx
+++ b/teams-and-rosters/CS320-Sp22-101-section-roster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\donha\cs320-spring2022\teams-and-rosters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B257833-5774-41F4-8F76-1CFC8C050D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFA65D2-0A5E-4AE9-AE52-6476B4DD0184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1608" yWindow="294" windowWidth="20844" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="20844" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CS320-Sp22-101-roster" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Last Name</t>
   </si>
@@ -38,6 +38,138 @@
   </si>
   <si>
     <t>CS320 Section 101 (MWF 8:00 - 8:50)</t>
+  </si>
+  <si>
+    <t>Barthelmes</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Bloomquist</t>
+  </si>
+  <si>
+    <t>Theodore</t>
+  </si>
+  <si>
+    <t>Carvell</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Dodson</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Endres</t>
+  </si>
+  <si>
+    <t>Alina</t>
+  </si>
+  <si>
+    <t>Geyer</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Hageneder</t>
+  </si>
+  <si>
+    <t>Brody</t>
+  </si>
+  <si>
+    <t>Mains</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Messner</t>
+  </si>
+  <si>
+    <t>Dakota</t>
+  </si>
+  <si>
+    <t>Pagano</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Reckard</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Wade</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Warner</t>
+  </si>
+  <si>
+    <t>Bryce</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>mbarthelmes@ycp.edu</t>
+  </si>
+  <si>
+    <t>tbloomquist@ycp.edu</t>
+  </si>
+  <si>
+    <t>jcarvell@ycp.edu</t>
+  </si>
+  <si>
+    <t>ldodson@ycp.edu</t>
+  </si>
+  <si>
+    <t>aendres1@ycp.edu</t>
+  </si>
+  <si>
+    <t>mgeyer@ycp.edu</t>
+  </si>
+  <si>
+    <t>bhageneder@ycp.edu</t>
+  </si>
+  <si>
+    <t>emains@ycp.edu</t>
+  </si>
+  <si>
+    <t>dmessner@ycp.edu</t>
+  </si>
+  <si>
+    <t>vpagano1@ycp.edu</t>
+  </si>
+  <si>
+    <t>ereckard@ycp.edu</t>
+  </si>
+  <si>
+    <t>rwade4@ycp.edu</t>
+  </si>
+  <si>
+    <t>bwarner7@ycp.edu</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>CE</t>
   </si>
 </sst>
 </file>
@@ -545,7 +677,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -554,9 +686,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,6 +693,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -945,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -961,91 +1094,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20.399999999999999" x14ac:dyDescent="0.75">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4"/>
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="5" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5"/>
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6"/>
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7"/>
+      <c r="A7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8"/>
+      <c r="A8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9"/>
+      <c r="A9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="10" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10"/>
+      <c r="A10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:5" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11"/>
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
